--- a/Y2-Sem2/就職/2220042_履歴書_文家俊_20231120.xlsx
+++ b/Y2-Sem2/就職/2220042_履歴書_文家俊_20231120.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AE690-1686-0344-930C-22AB26B0E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC199E4A-8973-5D4D-BD51-FBEB877409C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20100" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="20480" windowHeight="20100" tabRatio="438" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="履歴書Ｂ４サイズ" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">私は株式会社チームラボに強い興味と志望意欲を抱いています。貴社は空間展示の分野で世界的に有名であり、クリエイティブなチームワークで注目を集めています。空間展示のデザインに興味を持ち、自身は動画デザインの経験もお持ちです。また、モーショングラフィックスの原理や作成プロセス、特徴にも幅広く理解があることです。貴社のIT技術と空間展示のデザインの業務が素晴らしいと感じています。IT技術と画像の業務を組み合わせた会社で働きたいと思っており、貴社を志望しました。貴社は働きやすい環境を提供するために様々な手当や制度を整えています。クリエイティブなオフィスで自身の能力を最大限に発揮できると思います。チームラボでの成長を通じて、自身のスキルを向上させ、組織の成長に貢献し、世界にインパクトを与えるプロダクトを生み出すことに意欲を心から望んでいます。
+    <t xml:space="preserve">私は株式会社チームラボに強い興味と志望意欲を抱いています。貴社は空間展示の分野で世界的に有名であり、クリエイティブな仕事環境で注目を集めています。
+私自身、空間展示のデザインに興味を持ち、動画デザインの経験も持っています。また、モーショングラフィックスの原理や作成プロセス、などの知識があります。貴社のIT技術と空間展示のデザインの業務に共感し、貴社を志望しました。
+貴社は働きやすい環境を提供するために様々な手当や制度を整えています。クリエイティブなオフィスで自身の能力を最大限に発揮できると思います。チームラボでの成長を通じて、自身のスキルを向上させ、組織の成長に貢献し、世界にインパクトを与えるプロダクトを生み出すことに意欲を心から望んでいます。
 </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1252,24 +1254,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1288,16 +1272,325 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1324,302 +1617,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2029,8 +2031,8 @@
   </sheetPr>
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A29" zoomScale="125" zoomScaleNormal="100" zoomScaleSheetLayoutView="170" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43:R55"/>
+    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="P40" zoomScale="206" zoomScaleNormal="100" zoomScaleSheetLayoutView="170" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43:AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
@@ -2081,17 +2083,17 @@
       <c r="AD1" s="7"/>
     </row>
     <row r="2" spans="1:30" s="8" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
       <c r="J2" s="7"/>
       <c r="K2"/>
       <c r="L2"/>
@@ -2099,21 +2101,21 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="118" t="s">
+      <c r="Q2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
       <c r="AD2" s="7"/>
     </row>
     <row r="3" spans="1:30" s="9" customFormat="1" ht="16" customHeight="1">
@@ -2124,19 +2126,19 @@
       <c r="E3" s="3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="118"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
     </row>
     <row r="4" spans="1:30" s="9" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A4" s="10"/>
@@ -2144,12 +2146,12 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="K4"/>
       <c r="L4"/>
     </row>
@@ -2157,15 +2159,15 @@
       <c r="A5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="110"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
-      <c r="H5" s="111"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
       <c r="I5" s="14" t="s">
         <v>56</v>
       </c>
@@ -2177,579 +2179,579 @@
       <c r="R5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="57" t="s">
+      <c r="S5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="58"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="38"/>
     </row>
     <row r="6" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="104" t="s">
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="105" t="s">
         <v>20</v>
       </c>
       <c r="K6"/>
       <c r="L6"/>
-      <c r="Q6" s="59" t="s">
+      <c r="Q6" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="S6" s="67" t="s">
+      <c r="S6" s="122" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="68"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="122"/>
+      <c r="Y6" s="122"/>
+      <c r="Z6" s="122"/>
+      <c r="AA6" s="122"/>
+      <c r="AB6" s="122"/>
+      <c r="AC6" s="123"/>
     </row>
     <row r="7" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="105"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="106"/>
       <c r="K7"/>
       <c r="L7"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="69"/>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="70"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="71"/>
     </row>
     <row r="8" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="105"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="106"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="33" t="s">
+      <c r="R8" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="43" t="s">
+      <c r="S8" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
-      <c r="V8" s="44"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="44"/>
-      <c r="Y8" s="44"/>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="44"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="45"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="78"/>
+      <c r="W8" s="78"/>
+      <c r="X8" s="78"/>
+      <c r="Y8" s="78"/>
+      <c r="Z8" s="78"/>
+      <c r="AA8" s="78"/>
+      <c r="AB8" s="78"/>
+      <c r="AC8" s="79"/>
     </row>
     <row r="9" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="106"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="107"/>
       <c r="K9"/>
       <c r="L9"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="47"/>
-      <c r="Y9" s="47"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="48"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="81"/>
+      <c r="U9" s="81"/>
+      <c r="V9" s="81"/>
+      <c r="W9" s="81"/>
+      <c r="X9" s="81"/>
+      <c r="Y9" s="81"/>
+      <c r="Z9" s="81"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="82"/>
     </row>
     <row r="10" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="63" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="64"/>
+      <c r="I10" s="102"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="Q10" s="31" t="s">
+      <c r="Q10" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="R10" s="33" t="s">
+      <c r="R10" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="44" t="s">
+      <c r="S10" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
-      <c r="V10" s="44"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="45"/>
+      <c r="T10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="78"/>
+      <c r="W10" s="78"/>
+      <c r="X10" s="78"/>
+      <c r="Y10" s="78"/>
+      <c r="Z10" s="78"/>
+      <c r="AA10" s="78"/>
+      <c r="AB10" s="78"/>
+      <c r="AC10" s="79"/>
     </row>
     <row r="11" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="70"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="111"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="71"/>
     </row>
     <row r="12" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="89" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="45"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
+      <c r="Z12" s="78"/>
+      <c r="AA12" s="78"/>
+      <c r="AB12" s="78"/>
+      <c r="AC12" s="79"/>
     </row>
     <row r="13" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77" t="s">
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="78"/>
-      <c r="M13" s="79"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="70"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="110"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="71"/>
     </row>
     <row r="14" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="102" t="s">
+      <c r="A14" s="91"/>
+      <c r="B14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="66"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="44"/>
-      <c r="Y14" s="44"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="44"/>
-      <c r="AB14" s="44"/>
-      <c r="AC14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="111"/>
+      <c r="Q14" s="121"/>
+      <c r="R14" s="85"/>
+      <c r="S14" s="78"/>
+      <c r="T14" s="78"/>
+      <c r="U14" s="78"/>
+      <c r="V14" s="78"/>
+      <c r="W14" s="78"/>
+      <c r="X14" s="78"/>
+      <c r="Y14" s="78"/>
+      <c r="Z14" s="78"/>
+      <c r="AA14" s="78"/>
+      <c r="AB14" s="78"/>
+      <c r="AC14" s="79"/>
     </row>
     <row r="15" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="70"/>
+      <c r="A15" s="91"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="111"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="71"/>
     </row>
     <row r="16" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="83"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="44"/>
-      <c r="Y16" s="44"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="44"/>
-      <c r="AB16" s="44"/>
-      <c r="AC16" s="45"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="104"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="85"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
+      <c r="V16" s="78"/>
+      <c r="W16" s="78"/>
+      <c r="X16" s="78"/>
+      <c r="Y16" s="78"/>
+      <c r="Z16" s="78"/>
+      <c r="AA16" s="78"/>
+      <c r="AB16" s="78"/>
+      <c r="AC16" s="79"/>
     </row>
     <row r="17" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="96" t="s">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="97"/>
-      <c r="K17" s="100" t="s">
+      <c r="J17" s="98"/>
+      <c r="K17" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="64"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="70"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="102"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="71"/>
     </row>
     <row r="18" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="83"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="44"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="45"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="104"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="85"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="78"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="78"/>
+      <c r="W18" s="78"/>
+      <c r="X18" s="78"/>
+      <c r="Y18" s="78"/>
+      <c r="Z18" s="78"/>
+      <c r="AA18" s="78"/>
+      <c r="AB18" s="78"/>
+      <c r="AC18" s="79"/>
     </row>
     <row r="19" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="L19" s="90"/>
-      <c r="M19" s="91"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="70"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="76"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="71"/>
     </row>
     <row r="20" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="77" t="s">
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="L20" s="78"/>
-      <c r="M20" s="79"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="45"/>
+      <c r="L20" s="109"/>
+      <c r="M20" s="110"/>
+      <c r="Q20" s="121"/>
+      <c r="R20" s="85"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="79"/>
     </row>
     <row r="21" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="74"/>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="66"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="72"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="111"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="125"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="72"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="72"/>
+      <c r="AB21" s="72"/>
+      <c r="AC21" s="73"/>
     </row>
     <row r="22" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="74"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="66"/>
+      <c r="A22" s="91"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="111"/>
     </row>
     <row r="23" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
-      <c r="Q23" s="119" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="104"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="104"/>
+      <c r="Q23" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="R23" s="120"/>
-      <c r="S23" s="92" t="s">
+      <c r="R23" s="41"/>
+      <c r="S23" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="T23" s="92"/>
-      <c r="U23" s="92"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="92"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="92"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="93"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="45"/>
     </row>
     <row r="24" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="Q24" s="80"/>
-      <c r="R24" s="121"/>
-      <c r="S24" s="102"/>
-      <c r="T24" s="102"/>
-      <c r="U24" s="102"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
-      <c r="AA24" s="102"/>
-      <c r="AB24" s="102"/>
-      <c r="AC24" s="103"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="46"/>
+      <c r="AC24" s="47"/>
     </row>
     <row r="25" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="15" t="s">
@@ -2758,1014 +2760,1014 @@
       <c r="B25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="129" t="s">
+      <c r="Q25" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="R25" s="130"/>
-      <c r="S25" s="135" t="s">
+      <c r="R25" s="62"/>
+      <c r="S25" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="T25" s="136"/>
-      <c r="U25" s="136"/>
-      <c r="V25" s="136"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="136"/>
-      <c r="Y25" s="136"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="137"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="68"/>
+      <c r="V25" s="68"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="68"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="68"/>
+      <c r="AC25" s="69"/>
       <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="117"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="21"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="131"/>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="131"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="69"/>
-      <c r="AC26" s="70"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="70"/>
+      <c r="T26" s="70"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="70"/>
+      <c r="Z26" s="70"/>
+      <c r="AA26" s="70"/>
+      <c r="AB26" s="70"/>
+      <c r="AC26" s="71"/>
       <c r="AD26" s="11"/>
     </row>
     <row r="27" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A27" s="60"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="24"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="70"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="71"/>
       <c r="AD27" s="12"/>
     </row>
     <row r="28" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="27"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="131"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="70"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="71"/>
       <c r="AD28" s="12"/>
     </row>
     <row r="29" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="30"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="24"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="133"/>
-      <c r="R29" s="134"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="72"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
+      <c r="AA29" s="72"/>
+      <c r="AB29" s="72"/>
+      <c r="AC29" s="73"/>
       <c r="AD29" s="12"/>
     </row>
     <row r="30" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="27"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="119" t="s">
+      <c r="Q30" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="63"/>
-      <c r="S30" s="122" t="s">
+      <c r="R30" s="48"/>
+      <c r="S30" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="88"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="54"/>
       <c r="AD30" s="12"/>
     </row>
     <row r="31" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="65"/>
-      <c r="S31" s="123"/>
-      <c r="T31" s="124"/>
-      <c r="U31" s="124"/>
-      <c r="V31" s="124"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="124"/>
-      <c r="Y31" s="124"/>
-      <c r="Z31" s="124"/>
-      <c r="AA31" s="124"/>
-      <c r="AB31" s="124"/>
-      <c r="AC31" s="125"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="57"/>
       <c r="AD31" s="12"/>
     </row>
     <row r="32" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="27"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="21"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="123"/>
-      <c r="T32" s="124"/>
-      <c r="U32" s="124"/>
-      <c r="V32" s="124"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="124"/>
-      <c r="Y32" s="124"/>
-      <c r="Z32" s="124"/>
-      <c r="AA32" s="124"/>
-      <c r="AB32" s="124"/>
-      <c r="AC32" s="125"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="57"/>
       <c r="AD32" s="12"/>
     </row>
     <row r="33" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="30"/>
+      <c r="A33" s="119"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="65"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="124"/>
-      <c r="Y33" s="124"/>
-      <c r="Z33" s="124"/>
-      <c r="AA33" s="124"/>
-      <c r="AB33" s="124"/>
-      <c r="AC33" s="125"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="57"/>
       <c r="AD33" s="12"/>
     </row>
     <row r="34" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="27"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="21"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="65"/>
-      <c r="S34" s="123"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="124"/>
-      <c r="W34" s="124"/>
-      <c r="X34" s="124"/>
-      <c r="Y34" s="124"/>
-      <c r="Z34" s="124"/>
-      <c r="AA34" s="124"/>
-      <c r="AB34" s="124"/>
-      <c r="AC34" s="125"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="57"/>
       <c r="AD34" s="12"/>
     </row>
     <row r="35" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="30"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
       <c r="P35" s="13"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="123"/>
-      <c r="T35" s="124"/>
-      <c r="U35" s="124"/>
-      <c r="V35" s="124"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="124"/>
-      <c r="Y35" s="124"/>
-      <c r="Z35" s="124"/>
-      <c r="AA35" s="124"/>
-      <c r="AB35" s="124"/>
-      <c r="AC35" s="125"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="56"/>
+      <c r="V35" s="56"/>
+      <c r="W35" s="56"/>
+      <c r="X35" s="56"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="56"/>
+      <c r="AC35" s="57"/>
       <c r="AD35" s="13"/>
     </row>
     <row r="36" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="127" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="27"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="21"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="123"/>
-      <c r="T36" s="124"/>
-      <c r="U36" s="124"/>
-      <c r="V36" s="124"/>
-      <c r="W36" s="124"/>
-      <c r="X36" s="124"/>
-      <c r="Y36" s="124"/>
-      <c r="Z36" s="124"/>
-      <c r="AA36" s="124"/>
-      <c r="AB36" s="124"/>
-      <c r="AC36" s="125"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56"/>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="56"/>
+      <c r="AC36" s="57"/>
       <c r="AD36" s="12"/>
     </row>
     <row r="37" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A37" s="52"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="30"/>
+      <c r="A37" s="119"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="65"/>
-      <c r="S37" s="123"/>
-      <c r="T37" s="124"/>
-      <c r="U37" s="124"/>
-      <c r="V37" s="124"/>
-      <c r="W37" s="124"/>
-      <c r="X37" s="124"/>
-      <c r="Y37" s="124"/>
-      <c r="Z37" s="124"/>
-      <c r="AA37" s="124"/>
-      <c r="AB37" s="124"/>
-      <c r="AC37" s="125"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="57"/>
       <c r="AD37" s="12"/>
     </row>
     <row r="38" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="27"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="21"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="123"/>
-      <c r="T38" s="124"/>
-      <c r="U38" s="124"/>
-      <c r="V38" s="124"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="124"/>
-      <c r="Y38" s="124"/>
-      <c r="Z38" s="124"/>
-      <c r="AA38" s="124"/>
-      <c r="AB38" s="124"/>
-      <c r="AC38" s="125"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="56"/>
+      <c r="W38" s="56"/>
+      <c r="X38" s="56"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="57"/>
       <c r="AD38" s="12"/>
     </row>
     <row r="39" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="30"/>
+      <c r="A39" s="119"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="65"/>
-      <c r="S39" s="123"/>
-      <c r="T39" s="124"/>
-      <c r="U39" s="124"/>
-      <c r="V39" s="124"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="124"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="124"/>
-      <c r="AA39" s="124"/>
-      <c r="AB39" s="124"/>
-      <c r="AC39" s="125"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="57"/>
       <c r="AD39" s="12"/>
     </row>
     <row r="40" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="51" t="s">
+      <c r="A40" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="27"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="21"/>
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="65"/>
-      <c r="S40" s="123"/>
-      <c r="T40" s="124"/>
-      <c r="U40" s="124"/>
-      <c r="V40" s="124"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="124"/>
-      <c r="Y40" s="124"/>
-      <c r="Z40" s="124"/>
-      <c r="AA40" s="124"/>
-      <c r="AB40" s="124"/>
-      <c r="AC40" s="125"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="49"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="56"/>
+      <c r="W40" s="56"/>
+      <c r="X40" s="56"/>
+      <c r="Y40" s="56"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="57"/>
       <c r="AD40" s="12"/>
     </row>
     <row r="41" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="30"/>
+      <c r="A41" s="119"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="123"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="124"/>
-      <c r="V41" s="124"/>
-      <c r="W41" s="124"/>
-      <c r="X41" s="124"/>
-      <c r="Y41" s="124"/>
-      <c r="Z41" s="124"/>
-      <c r="AA41" s="124"/>
-      <c r="AB41" s="124"/>
-      <c r="AC41" s="125"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="49"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="56"/>
+      <c r="W41" s="56"/>
+      <c r="X41" s="56"/>
+      <c r="Y41" s="56"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="57"/>
       <c r="AD41" s="12"/>
     </row>
     <row r="42" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C42" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="27"/>
-      <c r="Q42" s="81"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="126"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="127"/>
-      <c r="W42" s="127"/>
-      <c r="X42" s="127"/>
-      <c r="Y42" s="127"/>
-      <c r="Z42" s="127"/>
-      <c r="AA42" s="127"/>
-      <c r="AB42" s="127"/>
-      <c r="AC42" s="128"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="21"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="60"/>
     </row>
     <row r="43" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A43" s="52"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="30"/>
-      <c r="Q43" s="119" t="s">
+      <c r="A43" s="119"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
+      <c r="Q43" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="R43" s="63"/>
-      <c r="S43" s="122" t="s">
+      <c r="R43" s="48"/>
+      <c r="S43" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="87"/>
-      <c r="AA43" s="87"/>
-      <c r="AB43" s="87"/>
-      <c r="AC43" s="88"/>
+      <c r="T43" s="53"/>
+      <c r="U43" s="53"/>
+      <c r="V43" s="53"/>
+      <c r="W43" s="53"/>
+      <c r="X43" s="53"/>
+      <c r="Y43" s="53"/>
+      <c r="Z43" s="53"/>
+      <c r="AA43" s="53"/>
+      <c r="AB43" s="53"/>
+      <c r="AC43" s="54"/>
     </row>
     <row r="44" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="27"/>
-      <c r="Q44" s="80"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="123"/>
-      <c r="T44" s="124"/>
-      <c r="U44" s="124"/>
-      <c r="V44" s="124"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="124"/>
-      <c r="Y44" s="124"/>
-      <c r="Z44" s="124"/>
-      <c r="AA44" s="124"/>
-      <c r="AB44" s="124"/>
-      <c r="AC44" s="125"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="21"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="49"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
+      <c r="AA44" s="56"/>
+      <c r="AB44" s="56"/>
+      <c r="AC44" s="57"/>
     </row>
     <row r="45" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="52"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="30"/>
-      <c r="Q45" s="80"/>
-      <c r="R45" s="65"/>
-      <c r="S45" s="123"/>
-      <c r="T45" s="124"/>
-      <c r="U45" s="124"/>
-      <c r="V45" s="124"/>
-      <c r="W45" s="124"/>
-      <c r="X45" s="124"/>
-      <c r="Y45" s="124"/>
-      <c r="Z45" s="124"/>
-      <c r="AA45" s="124"/>
-      <c r="AB45" s="124"/>
-      <c r="AC45" s="125"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="24"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="49"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
+      <c r="V45" s="56"/>
+      <c r="W45" s="56"/>
+      <c r="X45" s="56"/>
+      <c r="Y45" s="56"/>
+      <c r="Z45" s="56"/>
+      <c r="AA45" s="56"/>
+      <c r="AB45" s="56"/>
+      <c r="AC45" s="57"/>
     </row>
     <row r="46" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A46" s="31"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="139" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="141"/>
-      <c r="Q46" s="80"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="123"/>
-      <c r="T46" s="124"/>
-      <c r="U46" s="124"/>
-      <c r="V46" s="124"/>
-      <c r="W46" s="124"/>
-      <c r="X46" s="124"/>
-      <c r="Y46" s="124"/>
-      <c r="Z46" s="124"/>
-      <c r="AA46" s="124"/>
-      <c r="AB46" s="124"/>
-      <c r="AC46" s="125"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="27"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="57"/>
     </row>
     <row r="47" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="24"/>
-      <c r="Q47" s="80"/>
-      <c r="R47" s="65"/>
-      <c r="S47" s="123"/>
-      <c r="T47" s="124"/>
-      <c r="U47" s="124"/>
-      <c r="V47" s="124"/>
-      <c r="W47" s="124"/>
-      <c r="X47" s="124"/>
-      <c r="Y47" s="124"/>
-      <c r="Z47" s="124"/>
-      <c r="AA47" s="124"/>
-      <c r="AB47" s="124"/>
-      <c r="AC47" s="125"/>
+      <c r="A47" s="132"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="30"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="49"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="56"/>
+      <c r="U47" s="56"/>
+      <c r="V47" s="56"/>
+      <c r="W47" s="56"/>
+      <c r="X47" s="56"/>
+      <c r="Y47" s="56"/>
+      <c r="Z47" s="56"/>
+      <c r="AA47" s="56"/>
+      <c r="AB47" s="56"/>
+      <c r="AC47" s="57"/>
     </row>
     <row r="48" spans="1:30" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A48" s="31"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="43" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="45"/>
-      <c r="Q48" s="80"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="123"/>
-      <c r="T48" s="124"/>
-      <c r="U48" s="124"/>
-      <c r="V48" s="124"/>
-      <c r="W48" s="124"/>
-      <c r="X48" s="124"/>
-      <c r="Y48" s="124"/>
-      <c r="Z48" s="124"/>
-      <c r="AA48" s="124"/>
-      <c r="AB48" s="124"/>
-      <c r="AC48" s="125"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="78"/>
+      <c r="I48" s="78"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="79"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="49"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="57"/>
     </row>
     <row r="49" spans="1:29" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A49" s="35"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="48"/>
-      <c r="Q49" s="80"/>
-      <c r="R49" s="65"/>
-      <c r="S49" s="123"/>
-      <c r="T49" s="124"/>
-      <c r="U49" s="124"/>
-      <c r="V49" s="124"/>
-      <c r="W49" s="124"/>
-      <c r="X49" s="124"/>
-      <c r="Y49" s="124"/>
-      <c r="Z49" s="124"/>
-      <c r="AA49" s="124"/>
-      <c r="AB49" s="124"/>
-      <c r="AC49" s="125"/>
+      <c r="A49" s="132"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="82"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="49"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="57"/>
     </row>
     <row r="50" spans="1:29" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="37" t="s">
+      <c r="A50" s="121"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="39"/>
-      <c r="Q50" s="80"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="123"/>
-      <c r="T50" s="124"/>
-      <c r="U50" s="124"/>
-      <c r="V50" s="124"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="124"/>
-      <c r="Y50" s="124"/>
-      <c r="Z50" s="124"/>
-      <c r="AA50" s="124"/>
-      <c r="AB50" s="124"/>
-      <c r="AC50" s="125"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="135"/>
+      <c r="F50" s="135"/>
+      <c r="G50" s="135"/>
+      <c r="H50" s="135"/>
+      <c r="I50" s="135"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="135"/>
+      <c r="L50" s="135"/>
+      <c r="M50" s="136"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="49"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="57"/>
     </row>
     <row r="51" spans="1:29" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="42"/>
-      <c r="Q51" s="80"/>
-      <c r="R51" s="65"/>
-      <c r="S51" s="123"/>
-      <c r="T51" s="124"/>
-      <c r="U51" s="124"/>
-      <c r="V51" s="124"/>
-      <c r="W51" s="124"/>
-      <c r="X51" s="124"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="124"/>
-      <c r="AA51" s="124"/>
-      <c r="AB51" s="124"/>
-      <c r="AC51" s="125"/>
+      <c r="A51" s="132"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="137"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="139"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="49"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="57"/>
     </row>
     <row r="52" spans="1:29" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A52" s="31"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="44"/>
-      <c r="F52" s="44"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
-      <c r="M52" s="45"/>
-      <c r="Q52" s="80"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="123"/>
-      <c r="T52" s="124"/>
-      <c r="U52" s="124"/>
-      <c r="V52" s="124"/>
-      <c r="W52" s="124"/>
-      <c r="X52" s="124"/>
-      <c r="Y52" s="124"/>
-      <c r="Z52" s="124"/>
-      <c r="AA52" s="124"/>
-      <c r="AB52" s="124"/>
-      <c r="AC52" s="125"/>
+      <c r="A52" s="121"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="78"/>
+      <c r="L52" s="78"/>
+      <c r="M52" s="79"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="49"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="56"/>
+      <c r="U52" s="56"/>
+      <c r="V52" s="56"/>
+      <c r="W52" s="56"/>
+      <c r="X52" s="56"/>
+      <c r="Y52" s="56"/>
+      <c r="Z52" s="56"/>
+      <c r="AA52" s="56"/>
+      <c r="AB52" s="56"/>
+      <c r="AC52" s="57"/>
     </row>
     <row r="53" spans="1:29" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="47"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="48"/>
-      <c r="Q53" s="80"/>
-      <c r="R53" s="65"/>
-      <c r="S53" s="123"/>
-      <c r="T53" s="124"/>
-      <c r="U53" s="124"/>
-      <c r="V53" s="124"/>
-      <c r="W53" s="124"/>
-      <c r="X53" s="124"/>
-      <c r="Y53" s="124"/>
-      <c r="Z53" s="124"/>
-      <c r="AA53" s="124"/>
-      <c r="AB53" s="124"/>
-      <c r="AC53" s="125"/>
+      <c r="A53" s="132"/>
+      <c r="B53" s="133"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
+      <c r="M53" s="82"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="49"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="57"/>
     </row>
     <row r="54" spans="1:29" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A54" s="31"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
-      <c r="K54" s="38"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="39"/>
-      <c r="Q54" s="80"/>
-      <c r="R54" s="65"/>
-      <c r="S54" s="123"/>
-      <c r="T54" s="124"/>
-      <c r="U54" s="124"/>
-      <c r="V54" s="124"/>
-      <c r="W54" s="124"/>
-      <c r="X54" s="124"/>
-      <c r="Y54" s="124"/>
-      <c r="Z54" s="124"/>
-      <c r="AA54" s="124"/>
-      <c r="AB54" s="124"/>
-      <c r="AC54" s="125"/>
+      <c r="A54" s="121"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="135"/>
+      <c r="H54" s="135"/>
+      <c r="I54" s="135"/>
+      <c r="J54" s="135"/>
+      <c r="K54" s="135"/>
+      <c r="L54" s="135"/>
+      <c r="M54" s="136"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="49"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
+      <c r="V54" s="56"/>
+      <c r="W54" s="56"/>
+      <c r="X54" s="56"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="56"/>
+      <c r="AB54" s="56"/>
+      <c r="AC54" s="57"/>
     </row>
     <row r="55" spans="1:29" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A55" s="32"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="49"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="50"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="82"/>
-      <c r="S55" s="126"/>
-      <c r="T55" s="127"/>
-      <c r="U55" s="127"/>
-      <c r="V55" s="127"/>
-      <c r="W55" s="127"/>
-      <c r="X55" s="127"/>
-      <c r="Y55" s="127"/>
-      <c r="Z55" s="127"/>
-      <c r="AA55" s="127"/>
-      <c r="AB55" s="127"/>
-      <c r="AC55" s="128"/>
+      <c r="A55" s="124"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="140"/>
+      <c r="L55" s="140"/>
+      <c r="M55" s="141"/>
+      <c r="Q55" s="50"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="58"/>
+      <c r="T55" s="59"/>
+      <c r="U55" s="59"/>
+      <c r="V55" s="59"/>
+      <c r="W55" s="59"/>
+      <c r="X55" s="59"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="59"/>
+      <c r="AA55" s="59"/>
+      <c r="AB55" s="59"/>
+      <c r="AC55" s="60"/>
     </row>
     <row r="56" spans="1:29" s="2" customFormat="1" ht="10" customHeight="1">
       <c r="A56" s="4"/>
@@ -3789,31 +3791,95 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
+      <c r="Y56" s="1"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
     </row>
     <row r="57" spans="1:29">
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
+      <c r="AB57" s="31"/>
+      <c r="AC57" s="31"/>
     </row>
     <row r="58" spans="1:29">
-      <c r="AB58" s="112"/>
-      <c r="AC58" s="112"/>
+      <c r="AB58" s="31"/>
+      <c r="AC58" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="C30:M31"/>
-    <mergeCell ref="C32:M33"/>
-    <mergeCell ref="C34:M35"/>
-    <mergeCell ref="C36:M37"/>
-    <mergeCell ref="C38:M39"/>
-    <mergeCell ref="C40:M41"/>
-    <mergeCell ref="C42:M43"/>
-    <mergeCell ref="C44:M45"/>
-    <mergeCell ref="C46:M47"/>
+    <mergeCell ref="C26:M27"/>
+    <mergeCell ref="C28:M29"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C50:M51"/>
+    <mergeCell ref="C52:M53"/>
+    <mergeCell ref="C54:M55"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C48:M49"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="S5:AC5"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="Q14:Q15"/>
+    <mergeCell ref="S6:AC7"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:AC21"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="S16:AC17"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:AC19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="K20:M23"/>
+    <mergeCell ref="B21:J23"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="B17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:M18"/>
+    <mergeCell ref="B14:J16"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="K13:M16"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B5:H5"/>
     <mergeCell ref="AB57:AC58"/>
     <mergeCell ref="B10:G11"/>
     <mergeCell ref="C25:M25"/>
@@ -3838,79 +3904,15 @@
     <mergeCell ref="R12:R13"/>
     <mergeCell ref="R14:R15"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="B17:H18"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="K17:M18"/>
-    <mergeCell ref="B14:J16"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="K13:M16"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="S5:AC5"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="Q14:Q15"/>
-    <mergeCell ref="S6:AC7"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:AC21"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="S16:AC17"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:AC19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="K20:M23"/>
-    <mergeCell ref="B21:J23"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C26:M27"/>
-    <mergeCell ref="C28:M29"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C50:M51"/>
-    <mergeCell ref="C52:M53"/>
-    <mergeCell ref="C54:M55"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C48:M49"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C30:M31"/>
+    <mergeCell ref="C32:M33"/>
+    <mergeCell ref="C34:M35"/>
+    <mergeCell ref="C36:M37"/>
+    <mergeCell ref="C38:M39"/>
+    <mergeCell ref="C40:M41"/>
+    <mergeCell ref="C42:M43"/>
+    <mergeCell ref="C44:M45"/>
+    <mergeCell ref="C46:M47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3921,6 +3923,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="818372c2-5ca1-41d4-8e9c-cfddae3549a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="17b0db3f-bb77-44b7-9a15-7825ddede5b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005D613A5EAFE00F468F9EFC7DA0099D63" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="0b760e266439ab167040dcc2c0736f84">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="818372c2-5ca1-41d4-8e9c-cfddae3549a4" xmlns:ns3="17b0db3f-bb77-44b7-9a15-7825ddede5b7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f105041562af0d128b58ba3f56905a79" ns2:_="" ns3:_="">
     <xsd:import namespace="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
@@ -4143,27 +4165,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="818372c2-5ca1-41d4-8e9c-cfddae3549a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="17b0db3f-bb77-44b7-9a15-7825ddede5b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF556100-2133-45DF-A239-4EAF58AB0466}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71EDEB97-939E-4A02-BAC1-754186A0AD43}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
+    <ds:schemaRef ds:uri="17b0db3f-bb77-44b7-9a15-7825ddede5b7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C16E766A-6D6C-43C8-A0C4-0FA713B704B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4180,23 +4201,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71EDEB97-939E-4A02-BAC1-754186A0AD43}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="818372c2-5ca1-41d4-8e9c-cfddae3549a4"/>
-    <ds:schemaRef ds:uri="17b0db3f-bb77-44b7-9a15-7825ddede5b7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF556100-2133-45DF-A239-4EAF58AB0466}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>